--- a/documents/Item_Beslutstabell.xlsx
+++ b/documents/Item_Beslutstabell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/Programmering/GitHub/INTE-spelet/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88660121-E0C2-454E-9987-516335C65659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C20603C-2408-8141-8A09-2ACCC7518016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{E0BCFC50-83D9-EA44-9C0D-3790F3676A66}"/>
   </bookViews>
@@ -827,9 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D36C45-6B50-6F45-91E3-B01906E65ED0}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/documents/Item_Beslutstabell.xlsx
+++ b/documents/Item_Beslutstabell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/Programmering/GitHub/INTE-spelet/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C20603C-2408-8141-8A09-2ACCC7518016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A334DBC1-3D01-EC41-BC78-B093628514E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{E0BCFC50-83D9-EA44-9C0D-3790F3676A66}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="66">
   <si>
     <t>Egg</t>
   </si>
@@ -827,7 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D36C45-6B50-6F45-91E3-B01906E65ED0}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1573,6 +1575,24 @@
         <v>65</v>
       </c>
       <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" t="s">
         <v>65</v>
       </c>
     </row>

--- a/documents/Item_Beslutstabell.xlsx
+++ b/documents/Item_Beslutstabell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/Programmering/GitHub/INTE-spelet/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A334DBC1-3D01-EC41-BC78-B093628514E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000245D9-015F-F341-A030-6BA76B3E9148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{E0BCFC50-83D9-EA44-9C0D-3790F3676A66}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{E0BCFC50-83D9-EA44-9C0D-3790F3676A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Item x Character" sheetId="2" r:id="rId1"/>
@@ -828,7 +828,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1598,6 +1598,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -1856,6 +1857,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2064,5 +2066,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/documents/Item_Beslutstabell.xlsx
+++ b/documents/Item_Beslutstabell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jon/Programmering/GitHub/INTE-spelet/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000245D9-015F-F341-A030-6BA76B3E9148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE738F-9917-4341-AD4B-FA46C10BC58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{E0BCFC50-83D9-EA44-9C0D-3790F3676A66}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Item x Race" sheetId="3" r:id="rId2"/>
     <sheet name="Item x Job" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Item x Character'!$A$1:$J$31</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="67">
   <si>
     <t>Egg</t>
   </si>
@@ -234,6 +237,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Potion</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+      <selection activeCell="J1" sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,31 +1177,31 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
